--- a/data/biofouling_data.xlsx
+++ b/data/biofouling_data.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/adr79_cornell_edu/Documents/Documents/Amanda/collaborations/Nitrogen subsidies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adb299\Documents\GitHub\floating_solar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F4EF7F6A-BA8D-41F6-9B50-33AFBAEDDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2B0AB6-E170-416A-B5D1-8574F6E78D56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EB5D4F-6799-4252-81C6-4E1D9014A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72BB13B2-6C29-40D7-9AB2-C494D19498D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72BB13B2-6C29-40D7-9AB2-C494D19498D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Def. rate using other estimates" sheetId="2" r:id="rId1"/>
-    <sheet name="Def. rate using AMC and food in" sheetId="1" r:id="rId2"/>
+    <sheet name="data_processed" sheetId="3" r:id="rId1"/>
+    <sheet name="Def. rate using other estimates" sheetId="2" r:id="rId2"/>
+    <sheet name="Def. rate using AMC and food in" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processed!$A$1:$G$67</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="171">
   <si>
     <t>Bird</t>
   </si>
@@ -912,6 +916,66 @@
   </si>
   <si>
     <t>estimate</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>Average from range of 20-50 g per day.</t>
+  </si>
+  <si>
+    <t>Assumed dry</t>
+  </si>
+  <si>
+    <t>Removed species for which no dry weight was available, or rate was measured by volume</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>0.051 g/hour converted to 1.224 g/day</t>
+  </si>
+  <si>
+    <t>defecation_rate_g_per_day_dry</t>
+  </si>
+  <si>
+    <t>Rate per night doubled to get approximate value for a day</t>
+  </si>
+  <si>
+    <t>Average taken from range of 0.84-0.64g/night then doubled to get approximate value per day.</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Barlein (1985)</t>
+  </si>
+  <si>
+    <t>Levey, D. J., &amp; Karasov, W. H. (1989). Digestive responses of temperate birds switched to fruit or insect diets. The Auk, 106(4), 675-686.</t>
+  </si>
+  <si>
+    <t>no reference</t>
+  </si>
+  <si>
+    <t>Blackcap Warbler</t>
+  </si>
+  <si>
+    <t>defecation_comment</t>
+  </si>
+  <si>
+    <t>mass_comment</t>
+  </si>
+  <si>
+    <t>Average of american and eurasian</t>
   </si>
 </sst>
 </file>
@@ -1346,22 +1410,1369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA274EC0-4156-4B87-AD4C-DCA9036B3F94}">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>3559.99</v>
+      </c>
+      <c r="C2">
+        <v>294.15384615384613</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2643.37</v>
+      </c>
+      <c r="C3">
+        <v>99.955357142857139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>3869</v>
+      </c>
+      <c r="C4">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4700.58</v>
+      </c>
+      <c r="C5">
+        <v>84.75967741935483</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>1047.31</v>
+      </c>
+      <c r="C6">
+        <v>84.142857142857139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>2811.68</v>
+      </c>
+      <c r="C7">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>4700.58</v>
+      </c>
+      <c r="C8">
+        <v>79.747368421052627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>1047.31</v>
+      </c>
+      <c r="C9">
+        <v>71.058823529411768</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>4700.58</v>
+      </c>
+      <c r="C10">
+        <v>63.359016393442623</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>566.86</v>
+      </c>
+      <c r="C11">
+        <v>60.826086956521742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>1047.31</v>
+      </c>
+      <c r="C12">
+        <v>60.153846153846153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>1047.31</v>
+      </c>
+      <c r="C13">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>762.36</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>473.65</v>
+      </c>
+      <c r="C16">
+        <v>36.696296296296296</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>2528.9699999999998</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>2811.68</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32.76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1120.31</v>
+      </c>
+      <c r="C19">
+        <v>27.35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>843.42</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>1202</v>
+      </c>
+      <c r="C21">
+        <v>26.266666666666669</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1575.7</v>
+      </c>
+      <c r="C22">
+        <v>25.129411764705885</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1575.7</v>
+      </c>
+      <c r="C23">
+        <v>24.991549295774647</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>1090.99</v>
+      </c>
+      <c r="C24">
+        <v>24.9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>1090.99</v>
+      </c>
+      <c r="C25">
+        <v>24.36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26">
+        <v>915.58</v>
+      </c>
+      <c r="C26">
+        <v>22.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>762.32</v>
+      </c>
+      <c r="C27">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28">
+        <v>15.6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>171.89</v>
+      </c>
+      <c r="C29">
+        <v>15.523529411764706</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>171.89</v>
+      </c>
+      <c r="C30">
+        <v>13.780487804878049</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <v>636.74</v>
+      </c>
+      <c r="C31">
+        <v>13.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>171.89</v>
+      </c>
+      <c r="C32">
+        <v>12.1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>412.53</v>
+      </c>
+      <c r="C33">
+        <v>11.8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>171.89</v>
+      </c>
+      <c r="C34">
+        <v>11.351724137931035</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="C35">
+        <v>11.3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <v>284</v>
+      </c>
+      <c r="C36">
+        <v>11.2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>284</v>
+      </c>
+      <c r="C37">
+        <v>10.41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>403.32</v>
+      </c>
+      <c r="C38">
+        <v>8.8481481481481481</v>
+      </c>
+      <c r="D38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39">
+        <v>354.2</v>
+      </c>
+      <c r="C39">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>183.21</v>
+      </c>
+      <c r="C40">
+        <v>7.239215686274509</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>171.89</v>
+      </c>
+      <c r="C41">
+        <v>6.5591836734693878</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>77.14</v>
+      </c>
+      <c r="C42">
+        <v>5.1504950495049506</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>78.5</v>
+      </c>
+      <c r="C43">
+        <v>4.6818181818181817</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>171.89</v>
+      </c>
+      <c r="C44">
+        <v>4.3538461538461535</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>77.14</v>
+      </c>
+      <c r="C45">
+        <v>4.1142857142857148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>77.14</v>
+      </c>
+      <c r="C46">
+        <v>3.8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>16.25</v>
+      </c>
+      <c r="C47">
+        <v>3.3632352941176471</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>26.51</v>
+      </c>
+      <c r="C48">
+        <v>3.2915492957746482</v>
+      </c>
+      <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>105.18</v>
+      </c>
+      <c r="C49">
+        <v>2.6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50">
+        <v>50.78</v>
+      </c>
+      <c r="C50">
+        <v>2.4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>77.14</v>
+      </c>
+      <c r="C51">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>105.18</v>
+      </c>
+      <c r="C52">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>16.25</v>
+      </c>
+      <c r="C53">
+        <v>2.1074626865671644</v>
+      </c>
+      <c r="D53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>16.25</v>
+      </c>
+      <c r="C54">
+        <v>1.7374999999999998</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>16.25</v>
+      </c>
+      <c r="C55">
+        <v>1.5615384615384618</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C56">
+        <v>1.5510999999999999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57">
+        <v>50.78</v>
+      </c>
+      <c r="C57">
+        <v>1.48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>18.2</v>
+      </c>
+      <c r="C58">
+        <v>1.37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59">
+        <v>16.7</v>
+      </c>
+      <c r="C59">
+        <v>1.224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>18.2</v>
+      </c>
+      <c r="C60">
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C61">
+        <v>0.69154929577464785</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>13.3</v>
+      </c>
+      <c r="C62">
+        <v>0.5050847457627119</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C63">
+        <v>0.40508474576271181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C64">
+        <v>0.31666666666666643</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>13.3</v>
+      </c>
+      <c r="C65">
+        <v>0.3126984126984127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C66">
+        <v>0.16065573770491803</v>
+      </c>
+      <c r="D66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>13.3</v>
+      </c>
+      <c r="C67">
+        <v>1.4285714285714457E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{BA274EC0-4156-4B87-AD4C-DCA9036B3F94}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G67">
+      <sortCondition descending="1" ref="C1:C67"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7E71C-D856-4085-B6CA-89719E28CBDE}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="64" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1389,7 +2800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1403,7 +2814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1417,7 +2828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1431,7 +2842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1443,7 +2854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1452,7 +2863,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +2877,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1480,7 +2891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1494,7 +2905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1508,7 +2919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1522,7 +2933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1536,7 +2947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>88</v>
       </c>
@@ -1550,7 +2961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +2975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1578,7 +2989,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1592,7 +3003,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +3017,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1620,7 +3031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +3043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1644,7 +3055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1658,7 +3069,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -1672,7 +3083,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -1686,7 +3097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -1700,7 +3111,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -1714,7 +3125,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1728,7 +3139,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -1742,7 +3153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -1762,23 +3173,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A416E921-2F96-4730-A63E-3D80663FB15A}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +3217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3">
         <v>0.69154929577464785</v>
@@ -1816,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4">
         <v>0.40508474576271181</v>
@@ -1826,7 +3237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5">
         <v>0.16065573770491803</v>
@@ -1836,7 +3247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7">
         <v>1.4285714285714457E-2</v>
@@ -1860,7 +3271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8">
         <v>0.5050847457627119</v>
@@ -1870,7 +3281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +3295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10">
         <v>1.5615384615384618</v>
@@ -1894,7 +3305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11">
         <v>3.3632352941176471</v>
@@ -1904,7 +3315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12">
         <v>2.1074626865671644</v>
@@ -1914,7 +3325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1942,7 +3353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15">
         <v>5.1504950495049506</v>
@@ -1952,7 +3363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1966,9 +3377,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>-1.0543859649122809</v>
       </c>
       <c r="C17" s="8"/>
@@ -1976,7 +3387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +3401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +3415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21">
         <v>24.991549295774647</v>
@@ -2028,7 +3439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +3453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -2054,7 +3465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24">
         <v>84.75967741935483</v>
@@ -2064,7 +3475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25">
         <v>79.747368421052627</v>
@@ -2074,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +3499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -2099,7 +3510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28">
         <v>15.523529411764706</v>
@@ -2108,7 +3519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29">
         <v>11.351724137931035</v>
@@ -2120,7 +3531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30">
         <v>12.1</v>
@@ -2129,7 +3540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31">
         <v>6.5591836734693878</v>
@@ -2138,7 +3549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32">
         <v>4.3538461538461535</v>
@@ -2147,7 +3558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2161,7 +3572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +3586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2189,7 +3600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2203,7 +3614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +3628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>63</v>
       </c>
@@ -2231,7 +3642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39">
         <v>71.058823529411768</v>
@@ -2241,7 +3652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40">
         <v>48.666666666666664</v>
@@ -2251,7 +3662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41">
         <v>60.153846153846153</v>
@@ -2261,7 +3672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
